--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b690649450b8c448/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FBDF9368-CC61-432B-B7C6-0FFC41B19A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88636EEC-877D-466E-AB0C-71888AD993B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75D85DE-6AE5-4B2E-BAFF-B16971468805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05717086-9568-450D-8EC0-8F173BD0E7FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{05717086-9568-450D-8EC0-8F173BD0E7FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -263,28 +263,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,169 +615,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF154736-E21B-46FA-B938-7A06035B747B}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="10" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="8"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
@@ -799,36 +773,12 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
